--- a/cases/sprint1-anexos/Modelo_Dados.xlsx
+++ b/cases/sprint1-anexos/Modelo_Dados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Especialidades" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
   <si>
     <t>86.400.902/0001-30</t>
   </si>
@@ -240,6 +240,30 @@
   </si>
   <si>
     <t>Cancelada</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>43522543-5</t>
+  </si>
+  <si>
+    <t>32654345-7</t>
+  </si>
+  <si>
+    <t>54636525-3</t>
+  </si>
+  <si>
+    <t>54366362-5</t>
+  </si>
+  <si>
+    <t>t32544444-1</t>
+  </si>
+  <si>
+    <t>54566266-7</t>
+  </si>
+  <si>
+    <t>54566266-8</t>
   </si>
 </sst>
 </file>
@@ -882,10 +906,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -893,7 +917,7 @@
     <col min="1" max="16384" width="23.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -907,13 +931,16 @@
         <v>34</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -926,14 +953,17 @@
       <c r="D2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="3">
         <v>94839859000</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
@@ -946,14 +976,17 @@
       <c r="D3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="3">
         <v>73556944057</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -966,14 +999,17 @@
       <c r="D4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="3">
         <v>16839338002</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
@@ -986,14 +1022,17 @@
       <c r="D5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="3">
         <v>14332654765</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
@@ -1006,14 +1045,17 @@
       <c r="D6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="3">
         <v>91305348010</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>57</v>
       </c>
@@ -1026,14 +1068,17 @@
       <c r="D7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="3">
         <v>79799299004</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>65</v>
       </c>
@@ -1043,10 +1088,13 @@
       <c r="C8" s="8">
         <v>43164</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="3">
         <v>13771913039</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1068,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>

--- a/cases/sprint1-anexos/Modelo_Dados.xlsx
+++ b/cases/sprint1-anexos/Modelo_Dados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Especialidades" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
   <si>
     <t>86.400.902/0001-30</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>54566266-8</t>
+  </si>
+  <si>
+    <t>Clinica</t>
+  </si>
+  <si>
+    <t>helena.souza@spmedicalgroup.com.br</t>
   </si>
 </sst>
 </file>
@@ -773,17 +779,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.21875" style="2" customWidth="1"/>
@@ -804,7 +810,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>22</v>
@@ -876,7 +882,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>28</v>
@@ -908,7 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/cases/sprint1-anexos/Modelo_Dados.xlsx
+++ b/cases/sprint1-anexos/Modelo_Dados.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
   <si>
     <t>86.400.902/0001-30</t>
   </si>
@@ -270,6 +270,15 @@
   </si>
   <si>
     <t>helena.souza@spmedicalgroup.com.br</t>
+  </si>
+  <si>
+    <t>54356-SP</t>
+  </si>
+  <si>
+    <t>53452-SP</t>
+  </si>
+  <si>
+    <t>65463-SP</t>
   </si>
 </sst>
 </file>
@@ -780,12 +789,12 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="2" bestFit="1" customWidth="1"/>
@@ -823,8 +832,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>54356</v>
+      <c r="A2" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -849,8 +858,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>53452</v>
+      <c r="A3" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
@@ -875,8 +884,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>65463</v>
+      <c r="A4" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
